--- a/Base/Teams/Titans/Players Yards Data.xlsx
+++ b/Base/Teams/Titans/Players Yards Data.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="28">
   <si>
     <t>R.Tannehill</t>
   </si>
@@ -33,9 +33,6 @@
   </si>
   <si>
     <t>J.McNichols</t>
-  </si>
-  <si>
-    <t>M.Sargent</t>
   </si>
   <si>
     <t>K.Blasingame</t>
@@ -459,13 +456,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AB2"/>
+  <dimension ref="A1:AA2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:28">
+    <row r="1" spans="1:27">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -544,94 +541,88 @@
       <c r="AA1" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="AB1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:27">
+      <c r="A2" s="1" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="2" spans="1:28">
-      <c r="A2" s="1" t="s">
-        <v>27</v>
-      </c>
       <c r="B2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="K2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="L2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="M2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="N2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="O2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="P2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="Q2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="R2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="S2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="T2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="U2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="V2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="W2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="X2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="Y2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="Z2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AA2" t="s">
-        <v>28</v>
-      </c>
-      <c r="AB2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -641,13 +632,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AB2"/>
+  <dimension ref="A1:AA2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:28">
+    <row r="1" spans="1:27">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -726,94 +717,88 @@
       <c r="AA1" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="AB1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:27">
+      <c r="A2" s="1" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="2" spans="1:28">
-      <c r="A2" s="1" t="s">
-        <v>27</v>
-      </c>
       <c r="B2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="K2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="L2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="M2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="N2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="O2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="P2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="Q2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="R2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="S2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="T2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="U2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="V2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="W2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="X2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="Y2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="Z2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AA2" t="s">
-        <v>28</v>
-      </c>
-      <c r="AB2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
   </sheetData>

--- a/Base/Teams/Titans/Players Yards Data.xlsx
+++ b/Base/Teams/Titans/Players Yards Data.xlsx
@@ -59,7 +59,7 @@
     <t>R.Davis</t>
   </si>
   <si>
-    <t>R.McCath</t>
+    <t>R.McMath</t>
   </si>
   <si>
     <t>C.Batson</t>
